--- a/evaluation-results.xlsx
+++ b/evaluation-results.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t xml:space="preserve">CNU-S-C-1A </t>
   </si>
@@ -137,6 +138,69 @@
   <si>
     <t>#nDCG-valid</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">hultech-S-E-1A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hultech-S-E-2A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hultech-S-E-3A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hultech-S-E-4A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLE-S-E-1A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLE-S-E-2A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLE-S-E-3A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLE-S-E-4A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUIDL-S-E-1A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem13-S-E-1A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem13-S-E-2A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem13-S-E-3A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem13-S-E-4A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem13-S-E-5A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THUSAM-S-E-1A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THUSAM-S-E-2A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUTA1-S-E-1A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">udel-S-E-1A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM13-S-E-1A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM13-S-E-2A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM13-S-E-3A </t>
   </si>
 </sst>
 </file>
@@ -484,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -765,4 +829,503 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>57.548400000000001</v>
+      </c>
+      <c r="C2">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>16.716699999999999</v>
+      </c>
+      <c r="E2">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>26.972899999999999</v>
+      </c>
+      <c r="C3">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>15.6167</v>
+      </c>
+      <c r="E3">
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>57.548400000000001</v>
+      </c>
+      <c r="C4">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>16.716699999999999</v>
+      </c>
+      <c r="E4">
+        <v>31</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>26.926300000000001</v>
+      </c>
+      <c r="C5">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>16.383400000000002</v>
+      </c>
+      <c r="E5">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>29.7866</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>18.3</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>29.821400000000001</v>
+      </c>
+      <c r="C7">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>18.2</v>
+      </c>
+      <c r="E7">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>29.668900000000001</v>
+      </c>
+      <c r="C8">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>18.316700000000001</v>
+      </c>
+      <c r="E8">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>29.6584</v>
+      </c>
+      <c r="C9">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>18.2333</v>
+      </c>
+      <c r="E9">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>29.0977</v>
+      </c>
+      <c r="C10">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>13.799899999999999</v>
+      </c>
+      <c r="E10">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>19.0213</v>
+      </c>
+      <c r="C11">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>8.0000999999999998</v>
+      </c>
+      <c r="E11">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>18.695399999999999</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>6.3</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>18.0227</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>5.6833</v>
+      </c>
+      <c r="E13">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>13.307399999999999</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>1.1667000000000001</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>14.327400000000001</v>
+      </c>
+      <c r="C15">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>1.75</v>
+      </c>
+      <c r="E15">
+        <v>31</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>24.9193</v>
+      </c>
+      <c r="C16">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>13.1333</v>
+      </c>
+      <c r="E16">
+        <v>29</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>26.7455</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>13.433400000000001</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18">
+        <v>26.444500000000001</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>19.616700000000002</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>19.4953</v>
+      </c>
+      <c r="C19">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>8.0333000000000006</v>
+      </c>
+      <c r="E19">
+        <v>23</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20">
+        <v>1.484</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21">
+        <v>1.484</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22">
+        <v>1.0941000000000001</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/evaluation-results.xlsx
+++ b/evaluation-results.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -835,9 +836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -846,7 +845,7 @@
         <v>33</v>
       </c>
       <c r="B2">
-        <v>57.548400000000001</v>
+        <v>24.541699999999999</v>
       </c>
       <c r="C2">
         <v>31</v>
@@ -858,10 +857,10 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>26.0168</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -869,7 +868,7 @@
         <v>34</v>
       </c>
       <c r="B3">
-        <v>26.972899999999999</v>
+        <v>23.9709</v>
       </c>
       <c r="C3">
         <v>31</v>
@@ -881,10 +880,10 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>26.383400000000002</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -892,7 +891,7 @@
         <v>35</v>
       </c>
       <c r="B4">
-        <v>57.548400000000001</v>
+        <v>24.541699999999999</v>
       </c>
       <c r="C4">
         <v>31</v>
@@ -904,10 +903,10 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>26.0168</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -915,7 +914,7 @@
         <v>36</v>
       </c>
       <c r="B5">
-        <v>26.926300000000001</v>
+        <v>24.0457</v>
       </c>
       <c r="C5">
         <v>31</v>
@@ -927,10 +926,10 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -938,7 +937,7 @@
         <v>37</v>
       </c>
       <c r="B6">
-        <v>29.7866</v>
+        <v>26.168199999999999</v>
       </c>
       <c r="C6">
         <v>32</v>
@@ -950,10 +949,10 @@
         <v>32</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>25.200099999999999</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -961,7 +960,7 @@
         <v>38</v>
       </c>
       <c r="B7">
-        <v>29.821400000000001</v>
+        <v>26.250599999999999</v>
       </c>
       <c r="C7">
         <v>32</v>
@@ -973,10 +972,10 @@
         <v>32</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>24.4834</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -984,7 +983,7 @@
         <v>39</v>
       </c>
       <c r="B8">
-        <v>29.668900000000001</v>
+        <v>26.127400000000002</v>
       </c>
       <c r="C8">
         <v>32</v>
@@ -996,10 +995,10 @@
         <v>32</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>23.45</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -1007,7 +1006,7 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>29.6584</v>
+        <v>26.092300000000002</v>
       </c>
       <c r="C9">
         <v>32</v>
@@ -1019,10 +1018,10 @@
         <v>32</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>23.866599999999998</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1030,7 +1029,7 @@
         <v>41</v>
       </c>
       <c r="B10">
-        <v>29.0977</v>
+        <v>25.466999999999999</v>
       </c>
       <c r="C10">
         <v>32</v>
@@ -1042,10 +1041,10 @@
         <v>32</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>21.9834</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1053,7 +1052,7 @@
         <v>42</v>
       </c>
       <c r="B11">
-        <v>19.0213</v>
+        <v>8.5031999999999996</v>
       </c>
       <c r="C11">
         <v>31</v>
@@ -1065,10 +1064,10 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>9.7834000000000003</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1076,7 +1075,7 @@
         <v>43</v>
       </c>
       <c r="B12">
-        <v>18.695399999999999</v>
+        <v>8.8267000000000007</v>
       </c>
       <c r="C12">
         <v>30</v>
@@ -1088,10 +1087,10 @@
         <v>30</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>10.2333</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1099,7 +1098,7 @@
         <v>44</v>
       </c>
       <c r="B13">
-        <v>18.0227</v>
+        <v>8.7550000000000008</v>
       </c>
       <c r="C13">
         <v>31</v>
@@ -1111,10 +1110,10 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>11.05</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1122,7 +1121,7 @@
         <v>45</v>
       </c>
       <c r="B14">
-        <v>13.307399999999999</v>
+        <v>2.512</v>
       </c>
       <c r="C14">
         <v>30</v>
@@ -1134,10 +1133,10 @@
         <v>30</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1145,7 +1144,7 @@
         <v>46</v>
       </c>
       <c r="B15">
-        <v>14.327400000000001</v>
+        <v>3.1678000000000002</v>
       </c>
       <c r="C15">
         <v>31</v>
@@ -1157,10 +1156,10 @@
         <v>31</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1168,7 +1167,7 @@
         <v>47</v>
       </c>
       <c r="B16">
-        <v>24.9193</v>
+        <v>21.0871</v>
       </c>
       <c r="C16">
         <v>29</v>
@@ -1180,10 +1179,10 @@
         <v>29</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -1191,7 +1190,7 @@
         <v>48</v>
       </c>
       <c r="B17">
-        <v>26.7455</v>
+        <v>23.718</v>
       </c>
       <c r="C17">
         <v>30</v>
@@ -1203,10 +1202,10 @@
         <v>30</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>22.733499999999999</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -1214,7 +1213,7 @@
         <v>49</v>
       </c>
       <c r="B18">
-        <v>26.444500000000001</v>
+        <v>24.129000000000001</v>
       </c>
       <c r="C18">
         <v>30</v>
@@ -1226,10 +1225,10 @@
         <v>30</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>27.666699999999999</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1237,7 +1236,7 @@
         <v>50</v>
       </c>
       <c r="B19">
-        <v>19.4953</v>
+        <v>15.8529</v>
       </c>
       <c r="C19">
         <v>23</v>
@@ -1249,10 +1248,10 @@
         <v>23</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>10.5167</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1272,10 +1271,10 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -1295,10 +1294,10 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -1318,14 +1317,27 @@
         <v>2</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/evaluation-results.xlsx
+++ b/evaluation-results.xlsx
@@ -12,11 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="汇总" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="中文" sheetId="1" r:id="rId1"/>
+    <sheet name="英文" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t xml:space="preserve">CNU-S-C-1A </t>
   </si>
@@ -97,111 +96,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#nDCG-valid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">hultech-S-E-1A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hultech-S-E-2A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hultech-S-E-3A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hultech-S-E-4A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLE-S-E-1A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLE-S-E-2A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLE-S-E-3A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KLE-S-E-4A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUIDL-S-E-1A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem13-S-E-1A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem13-S-E-2A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem13-S-E-3A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem13-S-E-4A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem13-S-E-5A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THUSAM-S-E-1A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THUSAM-S-E-2A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUTA1-S-E-1A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">udel-S-E-1A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM13-S-E-1A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM13-S-E-2A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UM13-S-E-3A </t>
+  </si>
+  <si>
+    <t>Sum:nDCG@10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>S-Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I-Recall@n</t>
+    <t>Sum:I-Recall@10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I-Recall@50</t>
+    <t>#I-Recall-10-valid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nDCG@n</t>
+    <t>H-Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nDCG@50</t>
+    <t>F-Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sum:I-Recall@n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sum:I-Recall@50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sum:nDCG@n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sum:nDCG@50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#I-Recall-valid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#nDCG-valid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">hultech-S-E-1A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hultech-S-E-2A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hultech-S-E-3A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hultech-S-E-4A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KLE-S-E-1A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KLE-S-E-2A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KLE-S-E-3A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KLE-S-E-4A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUIDL-S-E-1A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sem13-S-E-1A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sem13-S-E-2A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sem13-S-E-3A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sem13-S-E-4A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sem13-S-E-5A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">THUSAM-S-E-1A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">THUSAM-S-E-2A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUTA1-S-E-1A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">udel-S-E-1A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM13-S-E-1A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM13-S-E-2A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UM13-S-E-3A </t>
   </si>
 </sst>
 </file>
@@ -547,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -563,7 +546,7 @@
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -574,40 +557,22 @@
         <v>21</v>
       </c>
       <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -617,8 +582,23 @@
       <c r="C2">
         <v>0.93939393939399995</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>20.753399999999999</v>
+      </c>
+      <c r="G2">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>19.833500000000001</v>
+      </c>
+      <c r="I2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -628,8 +608,23 @@
       <c r="C3">
         <v>0.90909090909099999</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>20.217099999999999</v>
+      </c>
+      <c r="G3">
+        <v>22</v>
+      </c>
+      <c r="H3">
+        <v>18.666799999999999</v>
+      </c>
+      <c r="I3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -639,8 +634,23 @@
       <c r="C4">
         <v>0.95244474418400005</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>21.249199999999998</v>
+      </c>
+      <c r="G4">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>19.166699999999999</v>
+      </c>
+      <c r="I4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -650,8 +660,23 @@
       <c r="C5">
         <v>0.87319590535699998</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>20.2986</v>
+      </c>
+      <c r="G5">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>18.166799999999999</v>
+      </c>
+      <c r="I5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -661,8 +686,23 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>15.2363</v>
+      </c>
+      <c r="G6">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>12.466699999999999</v>
+      </c>
+      <c r="I6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -672,8 +712,23 @@
       <c r="C7">
         <v>0.99242424242399996</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>13.003</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>17.7334</v>
+      </c>
+      <c r="I7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -683,8 +738,23 @@
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>15.156499999999999</v>
+      </c>
+      <c r="G8">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>14.333399999999999</v>
+      </c>
+      <c r="I8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -694,8 +764,23 @@
       <c r="C9">
         <v>0.99440802656899996</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>18.5733</v>
+      </c>
+      <c r="G9">
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <v>19.166699999999999</v>
+      </c>
+      <c r="I9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -705,8 +790,23 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>19.837800000000001</v>
+      </c>
+      <c r="G10">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>19.150200000000002</v>
+      </c>
+      <c r="I10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -716,8 +816,23 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>21.523599999999998</v>
+      </c>
+      <c r="G11">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <v>17.383400000000002</v>
+      </c>
+      <c r="I11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -727,8 +842,23 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>21.558900000000001</v>
+      </c>
+      <c r="G12">
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <v>16.933399999999999</v>
+      </c>
+      <c r="I12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -738,8 +868,23 @@
       <c r="C13">
         <v>0.99806182855299996</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>20.718399999999999</v>
+      </c>
+      <c r="G13">
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>17.200199999999999</v>
+      </c>
+      <c r="I13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -749,8 +894,23 @@
       <c r="C14">
         <v>0.99806182855299996</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>20.673200000000001</v>
+      </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
+      <c r="H14">
+        <v>17.200199999999999</v>
+      </c>
+      <c r="I14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -760,8 +920,23 @@
       <c r="C15">
         <v>0.94867277422200003</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>18.678699999999999</v>
+      </c>
+      <c r="G15">
+        <v>24</v>
+      </c>
+      <c r="H15">
+        <v>16.566700000000001</v>
+      </c>
+      <c r="I15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -771,8 +946,23 @@
       <c r="C16">
         <v>0.90746650394999995</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>19.5276</v>
+      </c>
+      <c r="G16">
+        <v>24</v>
+      </c>
+      <c r="H16">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="I16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -782,8 +972,23 @@
       <c r="C17">
         <v>0.96410499626599999</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>18.317799999999998</v>
+      </c>
+      <c r="G17">
+        <v>24</v>
+      </c>
+      <c r="H17">
+        <v>13.8</v>
+      </c>
+      <c r="I17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -793,8 +998,23 @@
       <c r="C18">
         <v>0.96410499626599999</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>18.317799999999998</v>
+      </c>
+      <c r="G18">
+        <v>24</v>
+      </c>
+      <c r="H18">
+        <v>13.8</v>
+      </c>
+      <c r="I18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -804,8 +1024,23 @@
       <c r="C19">
         <v>0.90632949354199999</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>17.8504</v>
+      </c>
+      <c r="G19">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>12.3165</v>
+      </c>
+      <c r="I19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -815,460 +1050,501 @@
       <c r="C20">
         <v>0.88103650922300003</v>
       </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>17.075600000000001</v>
+      </c>
+      <c r="G20">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>19.316700000000001</v>
+      </c>
+      <c r="I20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1"/>
-    <hyperlink ref="F1" r:id="rId2"/>
-    <hyperlink ref="G1" r:id="rId3"/>
-    <hyperlink ref="H1" r:id="rId4"/>
-    <hyperlink ref="I1" r:id="rId5" display="I-Recall@n"/>
-    <hyperlink ref="J1" r:id="rId6" display="I-Recall@50"/>
-    <hyperlink ref="K1" r:id="rId7" display="nDCG@n"/>
-    <hyperlink ref="L1" r:id="rId8" display="nDCG@50"/>
+    <hyperlink ref="H1" r:id="rId1" display="I-Recall@n"/>
+    <hyperlink ref="F1" r:id="rId2" display="nDCG@50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26:J47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>0.170625</v>
+      </c>
+      <c r="C2">
+        <v>0.87930127812799996</v>
+      </c>
+      <c r="E2">
+        <v>24.541699999999999</v>
+      </c>
+      <c r="F2">
+        <v>31</v>
+      </c>
+      <c r="G2">
+        <v>26.0168</v>
+      </c>
+      <c r="H2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>0.37019841269800002</v>
+      </c>
+      <c r="C3">
+        <v>0.87930127812799996</v>
+      </c>
+      <c r="E3">
+        <v>23.9709</v>
+      </c>
+      <c r="F3">
+        <v>31</v>
+      </c>
+      <c r="G3">
+        <v>26.383400000000002</v>
+      </c>
+      <c r="H3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>0.170625</v>
+      </c>
+      <c r="C4">
+        <v>0.87930127812799996</v>
+      </c>
+      <c r="E4">
+        <v>24.541699999999999</v>
+      </c>
+      <c r="F4">
+        <v>31</v>
+      </c>
+      <c r="G4">
+        <v>26.0168</v>
+      </c>
+      <c r="H4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>0.31437500000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.872673427926</v>
+      </c>
+      <c r="E5">
+        <v>24.0457</v>
+      </c>
+      <c r="F5">
+        <v>31</v>
+      </c>
+      <c r="G5">
+        <v>27</v>
+      </c>
+      <c r="H5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>0.11411458333299999</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>26.168199999999999</v>
+      </c>
+      <c r="F6">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>25.200099999999999</v>
+      </c>
+      <c r="H6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>0.11562500000000001</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>26.250599999999999</v>
+      </c>
+      <c r="F7">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>24.4834</v>
+      </c>
+      <c r="H7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>0.128000992063</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>26.127400000000002</v>
+      </c>
+      <c r="F8">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>23.45</v>
+      </c>
+      <c r="H8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>0.12497023809500001</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>26.092300000000002</v>
+      </c>
+      <c r="F9">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>23.866599999999998</v>
+      </c>
+      <c r="H9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>0.92059216174500003</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>25.466999999999999</v>
+      </c>
+      <c r="F10">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>21.9834</v>
+      </c>
+      <c r="H10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>0.17166170634899999</v>
+      </c>
+      <c r="C11">
+        <v>0.775477059957</v>
+      </c>
+      <c r="E11">
+        <v>8.5031999999999996</v>
+      </c>
+      <c r="F11">
+        <v>31</v>
+      </c>
+      <c r="G11">
+        <v>9.7834000000000003</v>
+      </c>
+      <c r="H11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B2">
-        <v>24.541699999999999</v>
-      </c>
-      <c r="C2">
-        <v>31</v>
-      </c>
-      <c r="D2">
-        <v>16.716699999999999</v>
-      </c>
-      <c r="E2">
-        <v>31</v>
-      </c>
-      <c r="F2">
-        <v>26.0168</v>
-      </c>
-      <c r="G2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B12">
+        <v>0.18082589285699999</v>
+      </c>
+      <c r="C12">
+        <v>0.75550208378499994</v>
+      </c>
+      <c r="E12">
+        <v>8.8267000000000007</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>10.2333</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B3">
-        <v>23.9709</v>
-      </c>
-      <c r="C3">
-        <v>31</v>
-      </c>
-      <c r="D3">
-        <v>15.6167</v>
-      </c>
-      <c r="E3">
-        <v>31</v>
-      </c>
-      <c r="F3">
-        <v>26.383400000000002</v>
-      </c>
-      <c r="G3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="B13">
+        <v>0.180148809524</v>
+      </c>
+      <c r="C13">
+        <v>0.73744994212299997</v>
+      </c>
+      <c r="E13">
+        <v>8.7550000000000008</v>
+      </c>
+      <c r="F13">
+        <v>31</v>
+      </c>
+      <c r="G13">
+        <v>11.05</v>
+      </c>
+      <c r="H13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="B4">
-        <v>24.541699999999999</v>
-      </c>
-      <c r="C4">
-        <v>31</v>
-      </c>
-      <c r="D4">
-        <v>16.716699999999999</v>
-      </c>
-      <c r="E4">
-        <v>31</v>
-      </c>
-      <c r="F4">
-        <v>26.0168</v>
-      </c>
-      <c r="G4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B14">
+        <v>0.16924851190500001</v>
+      </c>
+      <c r="C14">
+        <v>0.59936767591999995</v>
+      </c>
+      <c r="E14">
+        <v>2.512</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>4.25</v>
+      </c>
+      <c r="H14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B5">
-        <v>24.0457</v>
-      </c>
-      <c r="C5">
-        <v>31</v>
-      </c>
-      <c r="D5">
-        <v>16.383400000000002</v>
-      </c>
-      <c r="E5">
-        <v>31</v>
-      </c>
-      <c r="F5">
-        <v>27</v>
-      </c>
-      <c r="G5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B15">
+        <v>0.159813988095</v>
+      </c>
+      <c r="C15">
+        <v>0.62930941084699998</v>
+      </c>
+      <c r="E15">
+        <v>3.1678000000000002</v>
+      </c>
+      <c r="F15">
+        <v>31</v>
+      </c>
+      <c r="G15">
+        <v>5.25</v>
+      </c>
+      <c r="H15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B6">
-        <v>26.168199999999999</v>
-      </c>
-      <c r="C6">
-        <v>32</v>
-      </c>
-      <c r="D6">
-        <v>18.3</v>
-      </c>
-      <c r="E6">
-        <v>32</v>
-      </c>
-      <c r="F6">
-        <v>25.200099999999999</v>
-      </c>
-      <c r="G6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B16">
+        <v>0.80294890873000002</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>21.0871</v>
+      </c>
+      <c r="F16">
+        <v>29</v>
+      </c>
+      <c r="G16">
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B7">
-        <v>26.250599999999999</v>
-      </c>
-      <c r="C7">
-        <v>32</v>
-      </c>
-      <c r="D7">
-        <v>18.2</v>
-      </c>
-      <c r="E7">
-        <v>32</v>
-      </c>
-      <c r="F7">
-        <v>24.4834</v>
-      </c>
-      <c r="G7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B17">
+        <v>0.249367559524</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>23.718</v>
+      </c>
+      <c r="F17">
+        <v>30</v>
+      </c>
+      <c r="G17">
+        <v>22.733499999999999</v>
+      </c>
+      <c r="H17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B8">
-        <v>26.127400000000002</v>
-      </c>
-      <c r="C8">
-        <v>32</v>
-      </c>
-      <c r="D8">
-        <v>18.316700000000001</v>
-      </c>
-      <c r="E8">
-        <v>32</v>
-      </c>
-      <c r="F8">
-        <v>23.45</v>
-      </c>
-      <c r="G8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="B18">
+        <v>0.182622662868</v>
+      </c>
+      <c r="C18">
+        <v>0.93017719192799997</v>
+      </c>
+      <c r="E18">
+        <v>24.129000000000001</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>27.666699999999999</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B9">
-        <v>26.092300000000002</v>
-      </c>
-      <c r="C9">
-        <v>32</v>
-      </c>
-      <c r="D9">
-        <v>18.2333</v>
-      </c>
-      <c r="E9">
-        <v>32</v>
-      </c>
-      <c r="F9">
-        <v>23.866599999999998</v>
-      </c>
-      <c r="G9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="B19">
+        <v>0.32771577381</v>
+      </c>
+      <c r="C19">
+        <v>0.64471655479900003</v>
+      </c>
+      <c r="E19">
+        <v>15.8529</v>
+      </c>
+      <c r="F19">
+        <v>23</v>
+      </c>
+      <c r="G19">
+        <v>10.5167</v>
+      </c>
+      <c r="H19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B10">
-        <v>25.466999999999999</v>
-      </c>
-      <c r="C10">
-        <v>32</v>
-      </c>
-      <c r="D10">
-        <v>13.799899999999999</v>
-      </c>
-      <c r="E10">
-        <v>32</v>
-      </c>
-      <c r="F10">
-        <v>21.9834</v>
-      </c>
-      <c r="G10">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11">
-        <v>8.5031999999999996</v>
-      </c>
-      <c r="C11">
-        <v>31</v>
-      </c>
-      <c r="D11">
-        <v>8.0000999999999998</v>
-      </c>
-      <c r="E11">
-        <v>31</v>
-      </c>
-      <c r="F11">
-        <v>9.7834000000000003</v>
-      </c>
-      <c r="G11">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12">
-        <v>8.8267000000000007</v>
-      </c>
-      <c r="C12">
-        <v>30</v>
-      </c>
-      <c r="D12">
-        <v>6.3</v>
-      </c>
-      <c r="E12">
-        <v>30</v>
-      </c>
-      <c r="F12">
-        <v>10.2333</v>
-      </c>
-      <c r="G12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13">
-        <v>8.7550000000000008</v>
-      </c>
-      <c r="C13">
-        <v>31</v>
-      </c>
-      <c r="D13">
-        <v>5.6833</v>
-      </c>
-      <c r="E13">
-        <v>31</v>
-      </c>
-      <c r="F13">
-        <v>11.05</v>
-      </c>
-      <c r="G13">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14">
-        <v>2.512</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="D14">
-        <v>1.1667000000000001</v>
-      </c>
-      <c r="E14">
-        <v>30</v>
-      </c>
-      <c r="F14">
-        <v>4.25</v>
-      </c>
-      <c r="G14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15">
-        <v>3.1678000000000002</v>
-      </c>
-      <c r="C15">
-        <v>31</v>
-      </c>
-      <c r="D15">
-        <v>1.75</v>
-      </c>
-      <c r="E15">
-        <v>31</v>
-      </c>
-      <c r="F15">
-        <v>5.25</v>
-      </c>
-      <c r="G15">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16">
-        <v>21.0871</v>
-      </c>
-      <c r="C16">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>13.1333</v>
-      </c>
-      <c r="E16">
-        <v>29</v>
-      </c>
-      <c r="F16">
-        <v>17</v>
-      </c>
-      <c r="G16">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17">
-        <v>23.718</v>
-      </c>
-      <c r="C17">
-        <v>30</v>
-      </c>
-      <c r="D17">
-        <v>13.433400000000001</v>
-      </c>
-      <c r="E17">
-        <v>30</v>
-      </c>
-      <c r="F17">
-        <v>22.733499999999999</v>
-      </c>
-      <c r="G17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18">
-        <v>24.129000000000001</v>
-      </c>
-      <c r="C18">
-        <v>30</v>
-      </c>
-      <c r="D18">
-        <v>19.616700000000002</v>
-      </c>
-      <c r="E18">
-        <v>30</v>
-      </c>
-      <c r="F18">
-        <v>27.666699999999999</v>
-      </c>
-      <c r="G18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19">
-        <v>15.8529</v>
-      </c>
-      <c r="C19">
-        <v>23</v>
-      </c>
-      <c r="D19">
-        <v>8.0333000000000006</v>
-      </c>
-      <c r="E19">
-        <v>23</v>
-      </c>
-      <c r="F19">
-        <v>10.5167</v>
-      </c>
-      <c r="G19">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
       <c r="B20">
+        <v>0.19174107142899999</v>
+      </c>
+      <c r="C20">
+        <v>0.96875</v>
+      </c>
+      <c r="E20">
         <v>1.484</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -1276,22 +1552,22 @@
       <c r="G20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B21">
+        <v>0.192898478836</v>
+      </c>
+      <c r="C21">
+        <v>0.96875</v>
+      </c>
+      <c r="E21">
         <v>1.484</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -1299,22 +1575,22 @@
       <c r="G21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B22">
+        <v>0.160600611772</v>
+      </c>
+      <c r="C22">
+        <v>0.96875</v>
+      </c>
+      <c r="E22">
         <v>1.0941000000000001</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -1322,22 +1598,16 @@
       <c r="G22">
         <v>2</v>
       </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G1" r:id="rId1" display="I-Recall@n"/>
+    <hyperlink ref="E1" r:id="rId2" display="nDCG@50"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>